--- a/варианты/баженов/в3/18_17073_17073.xlsx
+++ b/варианты/баженов/в3/18_17073_17073.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjhgb\PycharmProjects\isakovich2023\варианты\баженов\в3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF128A49-9EC9-4E6C-9588-13E863327310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,12 +27,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -48,7 +38,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -64,6 +54,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,18 +199,12 @@
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -224,6 +214,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -284,7 +280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -319,7 +315,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -496,18 +492,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:AI10"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,1127 +513,1284 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="17">
         <v>58</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="22">
         <v>68</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="8">
         <v>52</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="8">
         <v>7</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="8">
         <v>41</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="8">
         <v>58</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="8">
         <v>43</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="8">
         <v>69</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="8">
         <v>56</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="9">
         <v>10</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="17">
         <v>58</v>
       </c>
-      <c r="O1" s="14">
+      <c r="O1" s="22">
         <f>N1+B1</f>
         <v>126</v>
       </c>
-      <c r="P1" s="14">
+      <c r="P1" s="8">
         <f t="shared" ref="P1:W1" si="0">O1+C1</f>
         <v>178</v>
       </c>
-      <c r="Q1" s="14">
+      <c r="Q1" s="8">
         <f t="shared" si="0"/>
         <v>185</v>
       </c>
-      <c r="R1" s="14">
+      <c r="R1" s="8">
         <f t="shared" si="0"/>
         <v>226</v>
       </c>
-      <c r="S1" s="14">
+      <c r="S1" s="8">
         <f t="shared" si="0"/>
         <v>284</v>
       </c>
-      <c r="T1" s="14">
+      <c r="T1" s="8">
         <f t="shared" si="0"/>
         <v>327</v>
       </c>
-      <c r="U1" s="14">
+      <c r="U1" s="8">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-      <c r="V1" s="14">
+      <c r="V1" s="8">
         <f t="shared" si="0"/>
         <v>452</v>
       </c>
-      <c r="W1" s="15">
+      <c r="W1" s="9">
         <f t="shared" si="0"/>
         <v>462</v>
       </c>
       <c r="Z1" s="1">
         <v>1</v>
       </c>
-      <c r="AA1" s="14">
+      <c r="AA1" s="8">
         <f>IF(ISEVEN(O1),1,0)</f>
         <v>1</v>
       </c>
-      <c r="AB1" s="14">
+      <c r="AB1" s="8">
         <f t="shared" ref="AB1:AI1" si="1">IF(ISEVEN(P1),1,0)</f>
         <v>1</v>
       </c>
-      <c r="AC1" s="14">
+      <c r="AC1" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD1" s="14">
+      <c r="AD1" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AE1" s="14">
+      <c r="AE1" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AF1" s="14">
+      <c r="AF1" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG1" s="14">
+      <c r="AG1" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AH1" s="14">
+      <c r="AH1" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AI1" s="14">
+      <c r="AI1" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="10">
         <v>20</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="20">
         <v>42</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="6">
         <v>76</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="6">
         <v>31</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="6">
         <v>53</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="2">
         <v>69</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="2">
         <v>44</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="7">
         <v>21</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="13">
         <v>44</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="3">
         <v>80</v>
       </c>
-      <c r="N2" s="16">
+      <c r="N2" s="10">
         <f>N1+A2</f>
         <v>78</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="20">
         <f>MAX(N2,O1)+B2</f>
         <v>168</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="6">
         <f t="shared" ref="P2:W2" si="2">MAX(O2,P1)+C2</f>
         <v>254</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="6">
         <f t="shared" si="2"/>
         <v>285</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="6">
         <f t="shared" si="2"/>
         <v>338</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="2">
         <f t="shared" si="2"/>
         <v>407</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="2">
         <f t="shared" si="2"/>
         <v>451</v>
       </c>
-      <c r="U2" s="11">
+      <c r="U2" s="7">
         <f t="shared" si="2"/>
         <v>472</v>
       </c>
-      <c r="V2" s="19">
+      <c r="V2" s="13">
         <f>V1+I2</f>
         <v>496</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2" s="3">
         <f t="shared" si="2"/>
         <v>576</v>
       </c>
-      <c r="Z2" s="16">
+      <c r="Z2" s="10">
         <f t="shared" ref="Z2:Z10" si="3">IF(ISEVEN(N2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="AA2" s="5">
+      <c r="AA2" s="2">
         <f t="shared" ref="AA2:AA10" si="4">IF(ISEVEN(O2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="AB2" s="10">
+      <c r="AB2" s="6">
         <f t="shared" ref="AB2:AB10" si="5">IF(ISEVEN(P2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="AC2" s="10">
+      <c r="AC2" s="6">
         <f t="shared" ref="AC2:AC10" si="6">IF(ISEVEN(Q2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AD2" s="10">
+      <c r="AD2" s="6">
         <f t="shared" ref="AD2:AD10" si="7">IF(ISEVEN(R2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="AE2" s="5">
+      <c r="AE2" s="2">
         <f t="shared" ref="AE2:AE10" si="8">IF(ISEVEN(S2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF2" s="5">
+      <c r="AF2" s="2">
         <f t="shared" ref="AF2:AF10" si="9">IF(ISEVEN(T2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AG2" s="11">
+      <c r="AG2" s="7">
         <f t="shared" ref="AG2:AG10" si="10">IF(ISEVEN(U2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="AH2" s="19">
+      <c r="AH2" s="13">
         <f t="shared" ref="AH2:AH10" si="11">IF(ISEVEN(V2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="AI2" s="6">
+      <c r="AI2" s="3">
         <f t="shared" ref="AI2:AI10" si="12">IF(ISEVEN(W2),1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="10">
         <v>63</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="20">
         <v>78</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="20">
         <v>95</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="20">
         <v>32</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="16">
         <v>75</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="2">
         <v>12</v>
       </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
         <v>65</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="3">
         <v>88</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="10">
         <f t="shared" ref="N3:N10" si="13">N2+A3</f>
         <v>141</v>
       </c>
-      <c r="O3" s="5">
-        <f t="shared" ref="O3:O10" si="14">MAX(N3,O2)+B3</f>
+      <c r="O3" s="20">
+        <f t="shared" ref="O3:O7" si="14">MAX(N3,O2)+B3</f>
         <v>246</v>
       </c>
-      <c r="P3" s="22">
+      <c r="P3" s="20">
         <f t="shared" ref="P3:R3" si="15">O3+C3</f>
         <v>341</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="Q3" s="20">
         <f t="shared" si="15"/>
         <v>373</v>
       </c>
-      <c r="R3" s="22">
+      <c r="R3" s="16">
         <f t="shared" si="15"/>
         <v>448</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="2">
         <f t="shared" ref="S3:S10" si="16">MAX(R3,S2)+F3</f>
         <v>450</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="2">
         <f t="shared" ref="T3:T10" si="17">MAX(S3,T2)+G3</f>
         <v>463</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="2">
         <f t="shared" ref="U3:U10" si="18">MAX(T3,U2)+H3</f>
         <v>473</v>
       </c>
-      <c r="V3" s="5">
+      <c r="V3" s="2">
         <f t="shared" ref="V3:V10" si="19">MAX(U3,V2)+I3</f>
         <v>561</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="3">
         <f t="shared" ref="W3:W10" si="20">MAX(V3,W2)+J3</f>
         <v>664</v>
       </c>
-      <c r="Z3" s="16">
+      <c r="Z3" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="AA3" s="2">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AB3" s="22">
+      <c r="AB3" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC3" s="22">
+      <c r="AC3" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD3" s="22">
+      <c r="AD3" s="16">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE3" s="5">
+      <c r="AE3" s="2">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AF3" s="5">
+      <c r="AF3" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG3" s="5">
+      <c r="AG3" s="2">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AH3" s="5">
+      <c r="AH3" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI3" s="6">
+      <c r="AI3" s="3">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="10">
         <v>88</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>53</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="20">
         <v>88</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="20">
         <v>95</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="2">
         <v>35</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="2">
         <v>86</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="2">
         <v>46</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <v>42</v>
       </c>
-      <c r="J4" s="6">
-        <v>1</v>
-      </c>
-      <c r="N4" s="16">
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="10">
         <f t="shared" si="13"/>
         <v>229</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="2">
         <f t="shared" si="14"/>
         <v>299</v>
       </c>
-      <c r="P4" s="5">
-        <f t="shared" ref="P3:P10" si="21">MAX(O4,P3)+C4</f>
+      <c r="P4" s="2">
+        <f t="shared" ref="P4:P10" si="21">MAX(O4,P3)+C4</f>
         <v>344</v>
       </c>
-      <c r="Q4" s="5">
-        <f t="shared" ref="Q3:Q10" si="22">MAX(P4,Q3)+D4</f>
+      <c r="Q4" s="20">
+        <f t="shared" ref="Q4:Q10" si="22">MAX(P4,Q3)+D4</f>
         <v>461</v>
       </c>
-      <c r="R4" s="5">
-        <f t="shared" ref="R3:R10" si="23">MAX(Q4,R3)+E4</f>
+      <c r="R4" s="20">
+        <f t="shared" ref="R4:R10" si="23">MAX(Q4,R3)+E4</f>
         <v>556</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="2">
         <f t="shared" si="16"/>
         <v>591</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="2">
         <f t="shared" si="17"/>
         <v>677</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="2">
         <f t="shared" si="18"/>
         <v>723</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="2">
         <f t="shared" si="19"/>
         <v>765</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="3">
         <f t="shared" si="20"/>
         <v>766</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AA4" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AB4" s="2">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AC4" s="5">
+      <c r="AC4" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD4" s="5">
+      <c r="AD4" s="2">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE4" s="5">
+      <c r="AE4" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AF4" s="5">
+      <c r="AF4" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG4" s="5">
+      <c r="AG4" s="2">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AH4" s="5">
+      <c r="AH4" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI4" s="6">
+      <c r="AI4" s="3">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="10">
         <v>77</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="2">
         <v>87</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <v>10</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="7">
         <v>75</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="20">
         <v>96</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="2">
         <v>75</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="6">
         <v>84</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="6">
         <v>30</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="6">
         <v>25</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="3">
         <v>29</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="10">
         <f t="shared" si="13"/>
         <v>306</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="2">
         <f t="shared" si="14"/>
         <v>393</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="2">
         <f t="shared" si="21"/>
         <v>403</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="7">
         <f t="shared" si="22"/>
         <v>536</v>
       </c>
-      <c r="R5" s="19">
+      <c r="R5" s="20">
         <f t="shared" ref="R5:R8" si="24">R4+E5</f>
         <v>652</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="2">
         <f t="shared" si="16"/>
         <v>727</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T5" s="6">
         <f t="shared" si="17"/>
         <v>811</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U5" s="6">
         <f t="shared" si="18"/>
         <v>841</v>
       </c>
-      <c r="V5" s="10">
+      <c r="V5" s="6">
         <f t="shared" si="19"/>
         <v>866</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="3">
         <f t="shared" si="20"/>
         <v>895</v>
       </c>
-      <c r="Z5" s="16">
+      <c r="Z5" s="10">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AA5" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AB5" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC5" s="11">
+      <c r="AC5" s="7">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AD5" s="19">
+      <c r="AD5" s="13">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE5" s="5">
+      <c r="AE5" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AF5" s="10">
+      <c r="AF5" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG5" s="10">
+      <c r="AG5" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AH5" s="10">
+      <c r="AH5" s="6">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AI5" s="6">
+      <c r="AI5" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="10">
         <v>14</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="2">
         <v>77</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>34</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="7">
         <v>40</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="20">
         <v>99</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="2">
         <v>45</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="16">
         <v>50</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="16">
         <v>44</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="16">
         <v>4</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="3">
         <v>89</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="10">
         <f t="shared" si="13"/>
         <v>320</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="2">
         <f t="shared" si="14"/>
         <v>470</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="2">
         <f t="shared" si="21"/>
         <v>504</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="7">
         <f t="shared" si="22"/>
         <v>576</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="20">
         <f t="shared" si="24"/>
         <v>751</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="2">
         <f t="shared" si="16"/>
         <v>796</v>
       </c>
-      <c r="T6" s="22">
+      <c r="T6" s="16">
         <f t="shared" ref="T6:V6" si="25">S6+G6</f>
         <v>846</v>
       </c>
-      <c r="U6" s="22">
+      <c r="U6" s="16">
         <f t="shared" si="25"/>
         <v>890</v>
       </c>
-      <c r="V6" s="22">
+      <c r="V6" s="16">
         <f t="shared" si="25"/>
         <v>894</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="3">
         <f t="shared" si="20"/>
         <v>984</v>
       </c>
-      <c r="Z6" s="16">
+      <c r="Z6" s="10">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AA6" s="2">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AB6" s="2">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AC6" s="11">
+      <c r="AC6" s="7">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AD6" s="19">
+      <c r="AD6" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AE6" s="5">
+      <c r="AE6" s="2">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AF6" s="22">
+      <c r="AF6" s="16">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AG6" s="22">
+      <c r="AG6" s="16">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AH6" s="22">
+      <c r="AH6" s="16">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AI6" s="6">
+      <c r="AI6" s="3">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="10">
         <v>7</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="2">
         <v>54</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="2">
         <v>70</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="7">
         <v>13</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="20">
         <v>67</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="21">
         <v>95</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="13">
         <v>88</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="2">
         <v>100</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="2">
         <v>29</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="3">
         <v>26</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="10">
         <f t="shared" si="13"/>
         <v>327</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="2">
         <f t="shared" si="14"/>
         <v>524</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="2">
         <f t="shared" si="21"/>
         <v>594</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="7">
         <f t="shared" si="22"/>
         <v>607</v>
       </c>
-      <c r="R7" s="19">
+      <c r="R7" s="20">
         <f t="shared" si="24"/>
         <v>818</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="21">
         <f t="shared" si="16"/>
         <v>913</v>
       </c>
-      <c r="T7" s="19">
+      <c r="T7" s="13">
         <f t="shared" ref="T7:T8" si="26">T6+G7</f>
         <v>934</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="2">
         <f t="shared" si="18"/>
         <v>1034</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="2">
         <f t="shared" si="19"/>
         <v>1063</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="3">
         <f t="shared" si="20"/>
         <v>1089</v>
       </c>
-      <c r="Z7" s="16">
+      <c r="Z7" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AA7" s="2">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AB7" s="2">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AC7" s="11">
+      <c r="AC7" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="19">
+      <c r="AD7" s="13">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE7" s="11">
+      <c r="AE7" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="19">
+      <c r="AF7" s="13">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AG7" s="5">
+      <c r="AG7" s="2">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AH7" s="5">
+      <c r="AH7" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI7" s="6">
+      <c r="AI7" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="A8" s="11">
         <v>39</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="13">
         <v>38</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="2">
         <v>90</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="7">
         <v>98</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="13">
         <v>19</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="21">
         <v>51</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="14">
         <v>91</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="6">
         <v>36</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="2">
         <v>71</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="3">
         <v>98</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="11">
         <f t="shared" si="13"/>
         <v>366</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="13">
         <f t="shared" ref="O8:O9" si="27">O7+B8</f>
         <v>562</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="2">
         <f t="shared" si="21"/>
         <v>684</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="7">
         <f t="shared" si="22"/>
         <v>782</v>
       </c>
-      <c r="R8" s="19">
+      <c r="R8" s="13">
         <f t="shared" si="24"/>
         <v>837</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="21">
         <f t="shared" si="16"/>
         <v>964</v>
       </c>
-      <c r="T8" s="20">
+      <c r="T8" s="14">
         <f t="shared" si="26"/>
         <v>1025</v>
       </c>
-      <c r="U8" s="10">
+      <c r="U8" s="6">
         <f t="shared" si="18"/>
         <v>1070</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8" s="2">
         <f t="shared" si="19"/>
         <v>1141</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="3">
         <f t="shared" si="20"/>
         <v>1239</v>
       </c>
-      <c r="Z8" s="17">
+      <c r="Z8" s="11">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AA8" s="19">
+      <c r="AA8" s="13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AB8" s="2">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AC8" s="11">
+      <c r="AC8" s="7">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AD8" s="19">
+      <c r="AD8" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="11">
+      <c r="AE8" s="7">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AF8" s="20">
+      <c r="AF8" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="10">
+      <c r="AG8" s="6">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AH8" s="5">
+      <c r="AH8" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI8" s="6">
+      <c r="AI8" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+      <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="14">
         <v>49</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="2">
         <v>99</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>35</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="2">
         <v>51</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="20">
         <v>59</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="20">
         <v>43</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="20">
         <v>89</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="2">
         <v>24</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="3">
         <v>15</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="11">
         <f t="shared" si="13"/>
         <v>371</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="14">
         <f t="shared" si="27"/>
         <v>611</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="2">
         <f t="shared" si="21"/>
         <v>783</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="2">
         <f t="shared" si="22"/>
         <v>818</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="2">
         <f t="shared" si="23"/>
         <v>888</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="20">
         <f t="shared" si="16"/>
         <v>1023</v>
       </c>
-      <c r="T9" s="22">
+      <c r="T9" s="20">
         <f t="shared" ref="T9:U9" si="28">S9+G9</f>
         <v>1066</v>
       </c>
-      <c r="U9" s="22">
+      <c r="U9" s="20">
         <f t="shared" si="28"/>
         <v>1155</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9" s="2">
         <f t="shared" si="19"/>
         <v>1179</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="3">
         <f t="shared" si="20"/>
         <v>1254</v>
       </c>
-      <c r="Z9" s="17">
+      <c r="Z9" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA9" s="20">
+      <c r="AA9" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AB9" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="5">
+      <c r="AC9" s="2">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AD9" s="5">
+      <c r="AD9" s="2">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE9" s="5">
+      <c r="AE9" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="22">
+      <c r="AF9" s="16">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AG9" s="22">
+      <c r="AG9" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AH9" s="5">
+      <c r="AH9" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI9" s="6">
+      <c r="AI9" s="3">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="12">
         <v>96</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="15">
         <v>38</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="4">
         <v>54</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="4">
         <v>88</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="4">
         <v>39</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="4">
         <v>50</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="4">
         <v>16</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="19">
         <v>73</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="19">
         <v>99</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="18">
         <v>32</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="12">
         <f t="shared" si="13"/>
         <v>467</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="15">
         <f>N10+B10</f>
         <v>505</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="4">
         <f t="shared" si="21"/>
         <v>837</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="4">
         <f t="shared" si="22"/>
         <v>925</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="4">
         <f t="shared" si="23"/>
         <v>964</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="4">
         <f t="shared" si="16"/>
         <v>1073</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T10" s="4">
         <f t="shared" si="17"/>
         <v>1089</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="19">
         <f t="shared" si="18"/>
         <v>1228</v>
       </c>
-      <c r="V10" s="8">
+      <c r="V10" s="19">
         <f t="shared" si="19"/>
         <v>1327</v>
       </c>
-      <c r="W10" s="9">
+      <c r="W10" s="18">
         <f t="shared" si="20"/>
         <v>1359</v>
       </c>
-      <c r="Z10" s="18">
+      <c r="Z10" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA10" s="21">
+      <c r="AA10" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB10" s="8">
+      <c r="AB10" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="8">
+      <c r="AC10" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="8">
+      <c r="AD10" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE10" s="8">
+      <c r="AE10" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="8">
+      <c r="AF10" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG10" s="8">
+      <c r="AG10" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AH10" s="8">
+      <c r="AH10" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI10" s="9">
+      <c r="AI10" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>58</v>
+      </c>
+      <c r="B13" s="22">
+        <v>68</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9"/>
       <c r="S13">
         <f>MAX(W10)</f>
         <v>1359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="20">
+        <v>42</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="20">
+        <v>78</v>
+      </c>
+      <c r="C15" s="20">
+        <v>95</v>
+      </c>
+      <c r="D15" s="20">
+        <v>32</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="20">
+        <v>88</v>
+      </c>
+      <c r="E16" s="20">
+        <v>95</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="20">
+        <v>96</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="20">
+        <v>99</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="20">
+        <v>67</v>
+      </c>
+      <c r="F19" s="21">
+        <v>95</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="21">
+        <v>51</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="20">
+        <v>59</v>
+      </c>
+      <c r="G21" s="20">
+        <v>43</v>
+      </c>
+      <c r="H21" s="20">
+        <v>89</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="19">
+        <v>73</v>
+      </c>
+      <c r="I22" s="19">
+        <v>99</v>
+      </c>
+      <c r="J22" s="18">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
